--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316147.864804412</v>
+        <v>1313890.842895329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>339.9939509566152</v>
+        <v>303.2326380146774</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,7 +832,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>158.7643741067584</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>151.691829608871</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.50046002839205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>81.72898226868509</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>127.2824906065718</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17.46103380248621</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>102.9997756133928</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>84.88248859267014</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>178.4829552738347</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.14816773710301</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>73.53680714572759</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>82.70057996958582</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.0154791549119</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.430248063567052</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>17.25588147840177</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>130.3899231758514</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>146.9083821604487</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.7229289524241</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>203.0941371261619</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.40896256662941</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581636</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>18.41757601122541</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143274</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164196</v>
+        <v>87.87589738164179</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>285.1555829172073</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>285.4667430481854</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006316</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996209</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124552</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124552</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E2" t="n">
-        <v>1289.01781586839</v>
+        <v>847.844772492695</v>
       </c>
       <c r="F2" t="n">
-        <v>878.0319110787823</v>
+        <v>840.8992717434916</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>694.9717324425633</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>381.5019329478783</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>374.5564321986748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>360.6330281372657</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>318.2383484401506</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>972.9616805754501</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1837.480496228805</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>2816.030799058633</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117416</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157122</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C13" t="n">
-        <v>492.7083461157122</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>492.7083461157122</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1546.258952359187</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>1546.258952359187</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>1256.841782322227</v>
       </c>
       <c r="X13" t="n">
-        <v>895.149390089482</v>
+        <v>1256.841782322227</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459519</v>
+        <v>1036.049203178697</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,13 +5276,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>786.6724891157196</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M14" t="n">
         <v>2216.257005193957</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.7083461157124</v>
+        <v>653.7478932037366</v>
       </c>
       <c r="C16" t="n">
-        <v>492.7083461157124</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D16" t="n">
-        <v>492.7083461157124</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.1389409875</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894822</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459521</v>
+        <v>653.7478932037366</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.1538185715858</v>
+        <v>741.6930623898347</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1538185715858</v>
+        <v>572.756879461928</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715858</v>
+        <v>572.756879461928</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>424.8437858795348</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>424.8437858795348</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.371768523616</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1295.26890164926</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.584413443373</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W19" t="n">
-        <v>1040.584413443373</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>812.5948625453557</v>
+        <v>962.4856415333649</v>
       </c>
       <c r="Y19" t="n">
-        <v>591.8022834018255</v>
+        <v>741.6930623898347</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>876.6177432290272</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1741.136558882382</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N20" t="n">
-        <v>3082.932479700092</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O20" t="n">
-        <v>3962.897130029547</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4357.671496386725</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.1253288168953</v>
+        <v>709.4168978689406</v>
       </c>
       <c r="C22" t="n">
-        <v>590.1253288168953</v>
+        <v>540.4807149410337</v>
       </c>
       <c r="D22" t="n">
-        <v>440.0086894045596</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>292.0955958221663</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>145.2056483242561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>145.2056483242561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2056483242561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,10 +5914,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1882.063862927201</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1690.377978754027</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1690.377978754027</v>
       </c>
       <c r="U22" t="n">
-        <v>1764.65758193153</v>
+        <v>1401.275111879671</v>
       </c>
       <c r="V22" t="n">
-        <v>1509.973093725643</v>
+        <v>1401.275111879671</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.555923688682</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="X22" t="n">
-        <v>992.5663727906651</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y22" t="n">
-        <v>771.7737936471349</v>
+        <v>891.0653626991804</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5996,37 +5996,37 @@
         <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.057343890768</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117415</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.9597618327376</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C25" t="n">
-        <v>784.0235789048306</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>633.9069394924949</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101018</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1872.807526741485</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>1583.390356704525</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>1355.400805806507</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="Y25" t="n">
-        <v>1134.608226662977</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,64 +6212,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N26" t="n">
-        <v>3189.3614801067</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986037</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>805.0466682503442</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="C28" t="n">
-        <v>636.1104853224373</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="D28" t="n">
-        <v>485.9938459101016</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145533</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>811.5418683145533</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>811.5418683145533</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.494725501681</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O29" t="n">
-        <v>3610.459375831136</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,28 +6552,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,7 +6619,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1602.869857567309</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.185369361422</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>1058.768199324461</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>1058.768199324461</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>243.4741280307876</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>876.6177432290281</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888351</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N32" t="n">
-        <v>3484.372139114997</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,16 +6789,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.7848081407827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7848081407827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D34" t="n">
-        <v>388.668168728447</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E34" t="n">
-        <v>388.668168728447</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
         <v>241.7782212305366</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851286</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>948.4228238690398</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X34" t="n">
-        <v>720.4332729710225</v>
+        <v>958.8120493274979</v>
       </c>
       <c r="Y34" t="n">
-        <v>720.4332729710225</v>
+        <v>738.0194701839678</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6938,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175503</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N35" t="n">
-        <v>3027.59632740215</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>3907.560977731604</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4302.335344088782</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6962,19 +6962,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.0415329315102</v>
+        <v>261.0108156295955</v>
       </c>
       <c r="C37" t="n">
-        <v>286.1722745373461</v>
+        <v>261.0108156295955</v>
       </c>
       <c r="D37" t="n">
-        <v>191.8197870963063</v>
+        <v>261.0108156295955</v>
       </c>
       <c r="E37" t="n">
-        <v>191.8197870963063</v>
+        <v>114.1646465809454</v>
       </c>
       <c r="F37" t="n">
-        <v>191.8197870963063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8197870963063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152489</v>
+        <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992664</v>
+        <v>664.367726499267</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7108,37 +7108,37 @@
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931657</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280145</v>
+        <v>1875.945475280147</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640714</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1464.626824743983</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.590882403369</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>922.9733187312249</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="W37" t="n">
-        <v>634.6230732280071</v>
+        <v>888.2406369001538</v>
       </c>
       <c r="X37" t="n">
-        <v>634.6230732280071</v>
+        <v>661.3180105358795</v>
       </c>
       <c r="Y37" t="n">
-        <v>634.6230732280071</v>
+        <v>441.5923559260923</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2064.476622801002</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
         <v>3547.201365906985</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430894</v>
@@ -7321,10 +7321,10 @@
         <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7366,16 +7366,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>3070.887536710052</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.852187039507</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4345.626553396684</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,19 +7588,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364129</v>
+        <v>1172.647446689876</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,7 +7676,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7725,7 +7725,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193594</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.13957882094016</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>219.9458872952495</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>170.1140909277306</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13798426930725</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>123.471956347048</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>260.9678829613745</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.2189875964762</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>46.30618790178744</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>183.0848540075436</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>354.4836849406614</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>192.1853085771353</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>91.87126778930173</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>23.80814351663787</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>130.0020851999082</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.1140909277318</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>48.65289230147175</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>73.34731650832776</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>126.3855966773256</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.017475755657642</v>
+        <v>104.3976710547484</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>64.70498037788408</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>158.929347599041</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>149.7857872961416</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.43418703317641</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>81.14331966635808</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>41.06599400233446</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20425267273507</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>15.39534552431974</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.4370633542422</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.6941762341252229</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4017321183702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>131.3595915398106</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>155.8219150297614</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>71.67627119164609</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>16.80006938416693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.61551826287522</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102223</v>
       </c>
       <c r="D37" t="n">
-        <v>54.15025516317755</v>
+        <v>147.5592177298068</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581638</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>125.9472167233003</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259152</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143255</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>950497.7775739206</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>950497.7775739204</v>
+        <v>950497.7775739207</v>
       </c>
     </row>
     <row r="13">
@@ -26317,10 +26317,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>456644.0549200309</v>
+        <v>456644.054920031</v>
       </c>
       <c r="F2" t="n">
         <v>456644.0549200309</v>
@@ -26329,31 +26329,31 @@
         <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
         <v>456644.054920031</v>
       </c>
       <c r="J2" t="n">
+        <v>456644.0549200312</v>
+      </c>
+      <c r="K2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="L2" t="n">
         <v>456644.054920031</v>
       </c>
-      <c r="K2" t="n">
-        <v>456644.0549200309</v>
-      </c>
-      <c r="L2" t="n">
-        <v>456644.0549200309</v>
-      </c>
       <c r="M2" t="n">
-        <v>456991.5661209323</v>
+        <v>456991.5661209324</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719637</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414976</v>
+        <v>36735.10506414962</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26436,28 +26436,28 @@
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811454</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="P4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33605.65329740902</v>
       </c>
     </row>
     <row r="5">
@@ -26491,16 +26491,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631189</v>
+        <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
         <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="E6" t="n">
-        <v>-385265.3696462795</v>
+        <v>-385332.5651365052</v>
       </c>
       <c r="F6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="G6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="H6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569015</v>
       </c>
       <c r="I6" t="n">
-        <v>342112.0443471274</v>
+        <v>342044.8488569016</v>
       </c>
       <c r="J6" t="n">
-        <v>165688.8251545345</v>
+        <v>165621.6296643088</v>
       </c>
       <c r="K6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569013</v>
       </c>
       <c r="L6" t="n">
-        <v>342112.0443471273</v>
+        <v>342044.8488569016</v>
       </c>
       <c r="M6" t="n">
-        <v>211535.8775235941</v>
+        <v>211470.192951633</v>
       </c>
       <c r="N6" t="n">
-        <v>301425.5882963028</v>
+        <v>301425.5882963025</v>
       </c>
       <c r="O6" t="n">
-        <v>338160.693360452</v>
+        <v>338160.6933604521</v>
       </c>
       <c r="P6" t="n">
         <v>338160.6933604521</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="N2" t="n">
-        <v>45.9188813301872</v>
+        <v>45.91888133018702</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>73.79021906417978</v>
+        <v>110.5515320061176</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>172.2309431554862</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.7374786276615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405388</v>
+        <v>1.056255288405543</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.9265797896527</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>772.2477227081609</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>507.3053774831311</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>648.4398196822187</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>522.2339425664198</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>598.159169516775</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>365.0132924001957</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36364,7 +36364,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>585.2273037320142</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36595,19 +36595,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>735.3866894204551</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>862.5366858288805</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36841,16 +36841,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>590.9472947965072</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>387.0442948008494</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>429.0625543447022</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>531.8611444048569</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443195</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>682.3039206128196</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>420.9083957314513</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147158</v>
+        <v>46.63467190147176</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327249</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586034</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818892</v>
+        <v>348.6896346818894</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559454</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.013326433516</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629901</v>
+        <v>79.45049382629919</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>587.5740081316983</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>528.9374309006599</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>377.179901481045</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>456.6075901479896</v>
+        <v>559.9877854470803</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
